--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87A79493-90F5-4C2D-AA82-D8DDA2E49F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D7732-B008-40F5-B50D-B8B2F213A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
+    <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -183,6 +172,15 @@
   </si>
   <si>
     <t>Bone item good texture</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>Clock number</t>
+  </si>
+  <si>
+    <t>Dirt</t>
   </si>
 </sst>
 </file>
@@ -219,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -255,11 +253,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -267,6 +289,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,20 +610,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,279 +634,338 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" s="3"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="2"/>
+      <c r="B47" s="6"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="7"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="7"/>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="5" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B91D7732-B008-40F5-B50D-B8B2F213A439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE03A2-7B57-483E-8F2E-5660617898F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -72,9 +72,6 @@
     <t>glowed item frame plus petit que l'original</t>
   </si>
   <si>
-    <t>recovery compass différent du normal</t>
-  </si>
-  <si>
     <t>smitting logo lingot disparru</t>
   </si>
   <si>
@@ -181,6 +178,24 @@
   </si>
   <si>
     <t>Dirt</t>
+  </si>
+  <si>
+    <t>recovery compass is like the normal</t>
+  </si>
+  <si>
+    <t>un vers la g</t>
+  </si>
+  <si>
+    <t>Cœur regeneration effect 1 trop a droite</t>
+  </si>
+  <si>
+    <t>pierres des abimes mauvaise texture</t>
+  </si>
+  <si>
+    <t>adoise des abimes ciselée</t>
+  </si>
+  <si>
+    <t>tuile des abime craquelée</t>
   </si>
 </sst>
 </file>
@@ -203,7 +218,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -213,6 +228,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -296,6 +317,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
-  <dimension ref="A1:D58"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,30 +661,37 @@
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
+      <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="10"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -689,6 +718,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
+      <c r="C11" s="10"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -702,269 +732,295 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="D36" s="9"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="6"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="6"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="7"/>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B48" s="7"/>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>51</v>
-      </c>
       <c r="B49" s="7"/>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66">
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="5" t="s">
-        <v>49</v>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEE03A2-7B57-483E-8F2E-5660617898F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05D1F2-AE7B-465F-B8BC-9F62B82BB653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -171,9 +171,6 @@
     <t>Bone item good texture</t>
   </si>
   <si>
-    <t>oo</t>
-  </si>
-  <si>
     <t>Clock number</t>
   </si>
   <si>
@@ -196,6 +193,66 @@
   </si>
   <si>
     <t>tuile des abime craquelée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sable renforcer </t>
+  </si>
+  <si>
+    <t>sable renforcer poli</t>
+  </si>
+  <si>
+    <t>Sable orange</t>
+  </si>
+  <si>
+    <t>sable renforcer orange</t>
+  </si>
+  <si>
+    <t>sable renforcer poli orange</t>
+  </si>
+  <si>
+    <t>smooth stone</t>
+  </si>
+  <si>
+    <t>slab smooth</t>
+  </si>
+  <si>
+    <t>granite poli</t>
+  </si>
+  <si>
+    <t>andesite poli</t>
+  </si>
+  <si>
+    <t>Les colorant</t>
+  </si>
+  <si>
+    <t>Copper ingot too pink</t>
+  </si>
+  <si>
+    <t>Grossir Emeraude</t>
+  </si>
+  <si>
+    <t>Teinture gris pas asser foncé</t>
+  </si>
+  <si>
+    <t>Teinture gris clair pas asser foncé</t>
+  </si>
+  <si>
+    <t>Teinture noir pas asser foncé</t>
+  </si>
+  <si>
+    <t>Bleu pale peut etre bleu comme la laine</t>
+  </si>
+  <si>
+    <t>Noire &gt; Gris, Gris &gt; Gris pale</t>
+  </si>
+  <si>
+    <t>Ficelle item etrange</t>
+  </si>
+  <si>
+    <t>remettre contour de bouffe ou rendre lisse</t>
   </si>
 </sst>
 </file>
@@ -218,7 +275,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,12 +285,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -310,14 +361,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
-  <dimension ref="A1:D67"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,15 +728,15 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -718,7 +770,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
-      <c r="C11" s="10"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
@@ -732,7 +784,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -744,16 +796,22 @@
       <c r="A16" t="s">
         <v>16</v>
       </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
@@ -787,36 +845,50 @@
       <c r="A23" t="s">
         <v>28</v>
       </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
@@ -865,14 +937,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="3"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="3"/>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
@@ -934,93 +1006,178 @@
       <c r="A46" t="s">
         <v>44</v>
       </c>
-      <c r="B46" s="6"/>
+      <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
-      <c r="B47" s="6"/>
+      <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="B49" s="6"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>53</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>54</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5" t="s">
-        <v>48</v>
-      </c>
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>22</v>
-      </c>
+      <c r="A60" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>45</v>
-      </c>
+      <c r="A61" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>7</v>
-      </c>
+      <c r="A62" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>30</v>
-      </c>
+      <c r="A63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>52</v>
-      </c>
+      <c r="A64" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>15</v>
+      <c r="A65" s="9" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66">
-        <v>37</v>
+      <c r="A66" s="9" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="5" t="s">
-        <v>48</v>
+      <c r="A67" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D05D1F2-AE7B-465F-B8BC-9F62B82BB653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2114D7-8002-4461-9F9C-D58D757D57D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
+    <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -353,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -368,8 +368,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -686,18 +684,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
   <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,21 +706,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -731,451 +729,457 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="10"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65" s="6"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66" s="6"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67" s="6"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68" s="6"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69" s="6"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71" s="6"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>75</v>
       </c>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC2114D7-8002-4461-9F9C-D58D757D57D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0657BD4-B6C3-43B5-A326-8062280CA501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>remettre contour de bouffe ou rendre lisse</t>
+  </si>
+  <si>
+    <t>Removed background_with_border ?</t>
   </si>
 </sst>
 </file>
@@ -682,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,6 +1187,11 @@
         <v>75</v>
       </c>
     </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>76</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0657BD4-B6C3-43B5-A326-8062280CA501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C05D78-6439-4BB6-A20E-9DE8FA14EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
+    <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -256,6 +256,9 @@
   </si>
   <si>
     <t>Removed background_with_border ?</t>
+  </si>
+  <si>
+    <t>poche d'encre</t>
   </si>
 </sst>
 </file>
@@ -687,18 +690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -709,21 +712,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -732,462 +735,480 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>46</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36" s="3"/>
       <c r="D36" s="8"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37" s="3"/>
       <c r="D37" s="7"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46" s="5"/>
       <c r="C46" s="3"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>52</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>53</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>55</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>56</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>57</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>58</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>59</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>60</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>61</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>62</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="9" t="s">
         <v>63</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>64</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="9" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="6"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="6"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="9" t="s">
         <v>69</v>
       </c>
       <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="6"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="6"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="9" t="s">
         <v>71</v>
       </c>
       <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="6"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>72</v>
       </c>
       <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="6"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="9" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>76</v>
       </c>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36C05D78-6439-4BB6-A20E-9DE8FA14EE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97585E87-D3E2-400E-9E79-63DA59018A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
+    <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
     <t>glowed item frame plus petit que l'original</t>
   </si>
   <si>
-    <t>smitting logo lingot disparru</t>
-  </si>
-  <si>
     <t>lapis drole de texture item</t>
   </si>
   <si>
@@ -259,6 +256,9 @@
   </si>
   <si>
     <t>poche d'encre</t>
+  </si>
+  <si>
+    <t>powder snow</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -319,21 +319,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </left>
+      <left/>
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </top>
@@ -347,9 +336,7 @@
       <right style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
@@ -359,26 +346,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -690,530 +694,537 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B4" s="2"/>
+      <c r="C4" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+        <v>49</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+        <v>22</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>33</v>
+      </c>
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="D37" s="7"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>47</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>48</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+        <v>52</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+        <v>54</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+        <v>56</v>
+      </c>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>49</v>
-      </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+        <v>57</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+        <v>59</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>55</v>
-      </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="3"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="3"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="3"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="3"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="3"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="3"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="9" t="s">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="9" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="9" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="9" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="6"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="9" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="9" t="s">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="9" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="9" t="s">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="9" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="6"/>
-      <c r="C68" s="6"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="9" t="s">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B69" s="6"/>
-      <c r="C69" s="6"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="9" t="s">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6"/>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="9" t="s">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>8</v>
+      </c>
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>14</v>
+      </c>
+      <c r="B71" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="9" t="s">
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="2"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>75</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="9" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>76</v>
-      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
+    <sortCondition sortBy="cellColor" ref="B2:B74" dxfId="1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1948931\Documents\GitHub\TexturePack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97585E87-D3E2-400E-9E79-63DA59018A63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300FE9AE-4D0B-489F-A4C5-7CBB1D53B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="4236" windowWidth="23256" windowHeight="12576" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
+    <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>Nom du problème</t>
   </si>
@@ -259,6 +259,30 @@
   </si>
   <si>
     <t>powder snow</t>
+  </si>
+  <si>
+    <t>Cloche menu</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Logo Depixel</t>
+  </si>
+  <si>
+    <t>Copper ingot needs to be darker</t>
+  </si>
+  <si>
+    <t>netherite scrap</t>
+  </si>
+  <si>
+    <t>xp bottle</t>
+  </si>
+  <si>
+    <t>gris clair</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -346,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -361,19 +385,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF92D050"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -694,18 +711,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="3" customWidth="1"/>
     <col min="3" max="3" width="13" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,21 +733,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -739,222 +756,222 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>39</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>28</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>45</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>41</v>
       </c>
@@ -962,7 +979,7 @@
       <c r="C36" s="2"/>
       <c r="D36" s="5"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -970,260 +987,306 @@
       <c r="C37" s="2"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>44</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>51</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>52</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>53</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>56</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>57</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>58</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>59</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
         <v>62</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
         <v>64</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
         <v>67</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
         <v>68</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
         <v>69</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
         <v>70</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
         <v>71</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>72</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
         <v>74</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>9</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>10</v>
       </c>
       <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C69" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="2"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="8"/>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>77</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="2"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
-    <sortCondition sortBy="cellColor" ref="B2:B74" dxfId="1"/>
+    <sortCondition sortBy="cellColor" ref="B2:B74" dxfId="0"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Classeur1.xlsx
+++ b/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antoi\Documents\GitHub\TexturePack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300FE9AE-4D0B-489F-A4C5-7CBB1D53B4C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DB91F5-A839-469F-9588-A5381B799037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="7200" windowWidth="29040" windowHeight="15840" xr2:uid="{FB0E89BB-F076-4571-B3A1-99A10D86C20A}"/>
   </bookViews>
@@ -177,9 +177,6 @@
     <t>recovery compass is like the normal</t>
   </si>
   <si>
-    <t>un vers la g</t>
-  </si>
-  <si>
     <t>Cœur regeneration effect 1 trop a droite</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Emeraude</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF92D050"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -711,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F885DA-2668-404B-8744-FDE7B449A0D5}">
   <dimension ref="A1:D87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -752,9 +768,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -926,54 +940,56 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -981,7 +997,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -989,42 +1005,42 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1045,248 +1061,264 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>59</v>
+      <c r="A51" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>60</v>
+      <c r="A52" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="4" t="s">
-        <v>72</v>
+      <c r="A64" t="s">
+        <v>6</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="4" t="s">
-        <v>74</v>
+      <c r="A65" t="s">
+        <v>8</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>9</v>
+      <c r="A68" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>10</v>
+      <c r="A69" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B69" s="2"/>
-      <c r="C69" s="3" t="s">
-        <v>85</v>
-      </c>
+      <c r="C69" s="2"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="8"/>
+        <v>81</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="4" t="s">
-        <v>73</v>
+      <c r="A72" t="s">
+        <v>82</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="4" t="s">
-        <v>76</v>
+      <c r="A73" t="s">
+        <v>85</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>78</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>79</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>80</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" s="8"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>81</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B78" s="8"/>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>82</v>
+        <v>10</v>
+      </c>
+      <c r="B79" s="8"/>
+      <c r="C79" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>83</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="B80" s="8"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
-    <sortCondition sortBy="cellColor" ref="B2:B74" dxfId="0"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C87">
+    <sortCondition sortBy="cellColor" ref="B2:B87" dxfId="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
